--- a/notebook/dataset/Shengli-1983.xlsx
+++ b/notebook/dataset/Shengli-1983.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Crude-Assay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CrudeCharacterization\notebook\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D70761F8-9B07-4698-963E-AD6749BB27F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ADDB32-B119-4F99-80D2-269D40B53B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{14B09D0B-2C43-4BC3-988B-E60F4F656886}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{14B09D0B-2C43-4BC3-988B-E60F4F656886}"/>
   </bookViews>
   <sheets>
-    <sheet name="Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Input-Assay" sheetId="2" r:id="rId2"/>
     <sheet name="Conventional-Results" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -666,16 +666,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA8BE2FC-99CB-457A-9772-27862CB938F8}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="33.54296875" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -697,7 +697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -708,7 +708,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -719,7 +719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -730,7 +730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -741,7 +741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -752,7 +752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -763,7 +763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -774,7 +774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -782,7 +782,7 @@
         <v>7.16869523269611</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -793,7 +793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -804,7 +804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -815,7 +815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -823,7 +823,7 @@
         <v>22.624998680836399</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -831,7 +831,7 @@
         <v>21.945240942183499</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -839,7 +839,7 @@
         <v>22.285119811509901</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -847,12 +847,12 @@
         <v>68.771748277124402</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -860,7 +860,7 @@
         <v>6.5631296345533103</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -868,7 +868,7 @@
         <v>11.8445429598603</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -876,7 +876,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -892,7 +892,7 @@
         <v>5.5905152680729602</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -900,7 +900,7 @@
         <v>4.4842500000000002E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -908,7 +908,7 @@
         <v>6.2600000000000003E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -924,7 +924,7 @@
         <v>4.6E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -940,7 +940,7 @@
         <v>6.6645769423897301</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -948,7 +948,7 @@
         <v>20.0783640071507</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -956,7 +956,7 @@
         <v>38.224371321829899</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -964,7 +964,7 @@
         <v>-0.98042725659863905</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -972,7 +972,7 @@
         <v>-0.99875377300308998</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -980,7 +980,7 @@
         <v>32.279988100938098</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -988,7 +988,7 @@
         <v>59.554249638961302</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -996,7 +996,7 @@
         <v>8.1657622601005908</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>87.9262911860922</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>11.3874085936172</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1020,17 +1020,17 @@
         <v>7.8575891292801803</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>56.131649717471603</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>8.8537723099782308</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>49.1799485001821</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>160.09729677384399</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>230.35073030914501</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>388.42279142064302</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>509.060916109473</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>625.09346704239897</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>796.71624431642601</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>878.08894230133103</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>1004.41331908626</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>49.212521969844502</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>138.30536108824501</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>210.55290789231299</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>57</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>366.40845647368099</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>489.66803968943799</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>605.60838804375203</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>780.12952350267506</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>862.68381319791899</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>1002.4255280427</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -1236,9 +1236,9 @@
       <selection sqref="A1:W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>66</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>1.17508528349414E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>1061.85569394867</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>3.0007186156125001</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>-135.380155327778</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>56.508956530270801</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>56.737053181397897</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>43.262946818602103</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>2.6644441353022102E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>87.639617027397406</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>78.008917025116801</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>27.8454901866304</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2468,13 +2468,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272EB59B-C74D-4E25-8776-A0920F77E017}">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>66</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>63</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>1.17508528349414E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>1061.85569394867</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>3.0007186156125001</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>-135.380155327778</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>56.508956530270801</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>56.737053181397897</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>43.262946818602103</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>2.6644441353022102E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>87.639617027397406</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -3559,7 +3559,7 @@
         <v>78.008917025116801</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>27.8454901866304</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>14</v>
       </c>
